--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5040" yWindow="400" windowWidth="25600" windowHeight="18400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="130">
   <si>
     <t>week</t>
   </si>
@@ -478,8 +478,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -575,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -620,6 +626,9 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -664,6 +673,9 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -30841,7 +30853,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30892,24 +30904,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -30917,7 +30929,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -30936,24 +30948,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -30961,7 +30973,7 @@
         <v>40</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -31188,6 +31200,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C31">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -31200,10 +31215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31221,137 +31236,96 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>0.25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>0.21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.18</v>
-      </c>
-      <c r="C13" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C12">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -31366,7 +31340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
